--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2141318.113697348</v>
+        <v>2137013.77388748</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>215.0845781150033</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>244.8448976285501</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11.85265184632477</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>43.9218040015056</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>200.4938539543651</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>25.605507805392</v>
+        <v>10.32577587654671</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,73 +898,73 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="W5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="G5" t="n">
+      <c r="X5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>232.2791855053266</v>
+        <v>212.5689651179051</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>20.75065379579526</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>65.40222883393993</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888209</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>109.1480955502619</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>140.510734076579</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>337.8784021671144</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465031</v>
+        <v>28.37634500508668</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.8390969161451</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115236</v>
+        <v>20.24979976115247</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.6026661256375</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099043</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>46.37831827053023</v>
+        <v>14.17992030911916</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>80.10107535865887</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.63824106824964</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812101</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>99.18584932336077</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>20.25102067617261</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>185.6920487814947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>137.3021949834108</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>220.424241778034</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2484,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>56.10180801516488</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>105.6507867899524</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>18.7084378797738</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>124.0270735093607</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>61.16269384155261</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>46.86766651429451</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>36.22494343870298</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>801.1705019471533</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="C2" t="n">
-        <v>801.1705019471533</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="D2" t="n">
-        <v>801.1705019471533</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344764</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471533</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="W2" t="n">
-        <v>801.1705019471533</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="X2" t="n">
-        <v>801.1705019471533</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="Y2" t="n">
-        <v>801.1705019471533</v>
+        <v>900.5447187946889</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239.9155982686269</v>
+        <v>660.5440004277928</v>
       </c>
       <c r="C3" t="n">
-        <v>65.46256898749988</v>
+        <v>486.0909711466658</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749988</v>
+        <v>337.1565614854145</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>177.919106479959</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>177.919106479959</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H3" t="n">
         <v>65.46256898749988</v>
@@ -4418,43 +4418,43 @@
         <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>503.6022960313624</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374622</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>858.0464416374622</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>858.0464416374622</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>655.5273972391136</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>447.6758970335808</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="Y3" t="n">
-        <v>239.9155982686269</v>
+        <v>828.7593374478608</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>803.5223344656631</v>
+        <v>641.9843993892782</v>
       </c>
       <c r="C4" t="n">
-        <v>634.5861515377562</v>
+        <v>473.0482164613713</v>
       </c>
       <c r="D4" t="n">
-        <v>484.4695121254205</v>
+        <v>322.9315770490356</v>
       </c>
       <c r="E4" t="n">
-        <v>336.5564185430274</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
         <v>21.09711040012049</v>
@@ -4497,7 +4497,7 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227046</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640389</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>803.5223344656631</v>
+        <v>1044.425443363048</v>
       </c>
       <c r="V4" t="n">
-        <v>803.5223344656631</v>
+        <v>1044.425443363048</v>
       </c>
       <c r="W4" t="n">
-        <v>803.5223344656631</v>
+        <v>1044.425443363048</v>
       </c>
       <c r="X4" t="n">
-        <v>803.5223344656631</v>
+        <v>1044.425443363048</v>
       </c>
       <c r="Y4" t="n">
-        <v>803.5223344656631</v>
+        <v>823.632864219518</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>820.230080101654</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="C5" t="n">
-        <v>553.8524235344762</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>553.8524235344762</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>553.8524235344762</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672984</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4567,52 +4567,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991311</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358409</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006024</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006024</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006024</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="Y5" t="n">
-        <v>820.230080101654</v>
+        <v>41.00642392276842</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186.9069872369999</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="C6" t="n">
-        <v>186.9069872369999</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="D6" t="n">
-        <v>186.9069872369999</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="E6" t="n">
-        <v>186.9069872369999</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="F6" t="n">
-        <v>186.9069872369999</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004799</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699341</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302307</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267545</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293595</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560893</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>858.046441637462</v>
+        <v>970.4567788047946</v>
       </c>
       <c r="U6" t="n">
-        <v>629.9105956742754</v>
+        <v>742.3209328416081</v>
       </c>
       <c r="V6" t="n">
-        <v>394.7584874425327</v>
+        <v>742.3209328416081</v>
       </c>
       <c r="W6" t="n">
-        <v>394.7584874425327</v>
+        <v>742.3209328416081</v>
       </c>
       <c r="X6" t="n">
-        <v>186.9069872369999</v>
+        <v>534.4694326360752</v>
       </c>
       <c r="Y6" t="n">
-        <v>186.9069872369999</v>
+        <v>326.7091338711213</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>328.6421545640785</v>
+        <v>503.2874698569806</v>
       </c>
       <c r="C7" t="n">
-        <v>159.7059716361716</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="D7" t="n">
-        <v>159.7059716361716</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
         <v>36.32155393434483</v>
@@ -4734,7 +4734,7 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>815.8123902747866</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>549.4347337076086</v>
+        <v>912.9254855852377</v>
       </c>
       <c r="X7" t="n">
-        <v>549.4347337076086</v>
+        <v>684.9359346872203</v>
       </c>
       <c r="Y7" t="n">
-        <v>328.6421545640785</v>
+        <v>684.9359346872203</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.625085461124</v>
+        <v>825.7137642237628</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3337701408066</v>
+        <v>456.7512472833511</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3337701408066</v>
+        <v>98.48554867660062</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3337701408066</v>
+        <v>98.48554867660062</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3478653511989</v>
+        <v>91.54004792739714</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428661</v>
+        <v>79.87422995946835</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>79.87422995946835</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607423</v>
+        <v>442.1757437607409</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045931</v>
+        <v>795.1862829045908</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.647962995224</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209585</v>
+        <v>1655.59168520958</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940597</v>
+        <v>2053.905718940591</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550199</v>
+        <v>2359.356530550192</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661165</v>
+        <v>2540.564622661158</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342785</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762137</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762137</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762137</v>
+        <v>2306.981581868347</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.830015762137</v>
+        <v>1975.918694524776</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.830015762137</v>
+        <v>1975.918694524776</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.364257501058</v>
+        <v>1602.452936263696</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.224925525246</v>
+        <v>1212.313604287885</v>
       </c>
     </row>
     <row r="9">
@@ -4877,43 +4877,43 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>71.66559839993884</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507236</v>
+        <v>238.3188829507231</v>
       </c>
       <c r="K9" t="n">
-        <v>422.9158793018229</v>
+        <v>684.7364639442746</v>
       </c>
       <c r="L9" t="n">
-        <v>1056.655162486662</v>
+        <v>979.2724473777553</v>
       </c>
       <c r="M9" t="n">
-        <v>1419.721630960963</v>
+        <v>1342.338915852056</v>
       </c>
       <c r="N9" t="n">
-        <v>1806.806033433533</v>
+        <v>1729.423318324624</v>
       </c>
       <c r="O9" t="n">
-        <v>2138.692843420922</v>
+        <v>2061.310128312013</v>
       </c>
       <c r="P9" t="n">
-        <v>2385.728201850547</v>
+        <v>2308.345486741637</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442627</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342785</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.8262802517</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685349</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>731.6392103447072</v>
+        <v>679.3902704547947</v>
       </c>
       <c r="C10" t="n">
-        <v>562.7030274168003</v>
+        <v>510.4540875268879</v>
       </c>
       <c r="D10" t="n">
-        <v>562.7030274168003</v>
+        <v>360.3374481145521</v>
       </c>
       <c r="E10" t="n">
-        <v>414.7899338344072</v>
+        <v>212.424354532159</v>
       </c>
       <c r="F10" t="n">
-        <v>414.7899338344072</v>
+        <v>65.53440703424863</v>
       </c>
       <c r="G10" t="n">
-        <v>246.8028089740979</v>
+        <v>65.53440703424863</v>
       </c>
       <c r="H10" t="n">
-        <v>98.05804133870441</v>
+        <v>65.53440703424863</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380155</v>
+        <v>76.63468308380119</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676569</v>
+        <v>248.2500215676562</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368922</v>
+        <v>523.3850043368911</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904037</v>
+        <v>823.8653899904023</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412621</v>
+        <v>1533.156055412618</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.156055412621</v>
+        <v>1336.515802634452</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.174753887026</v>
+        <v>1336.515802634452</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.056380381668</v>
+        <v>1336.515802634452</v>
       </c>
       <c r="V10" t="n">
-        <v>1021.056380381668</v>
+        <v>1081.831314428565</v>
       </c>
       <c r="W10" t="n">
-        <v>731.6392103447072</v>
+        <v>1081.831314428565</v>
       </c>
       <c r="X10" t="n">
-        <v>731.6392103447072</v>
+        <v>1081.831314428565</v>
       </c>
       <c r="Y10" t="n">
-        <v>731.6392103447072</v>
+        <v>861.0387352850345</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5126,16 +5126,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>808.8888553856862</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C13" t="n">
-        <v>639.9526724577793</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>489.8360330454435</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>341.9229394630504</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159259</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,40 +5281,40 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
@@ -5369,7 +5369,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1400.559342807163</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1172.569791909146</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5500,10 +5500,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>3639.612039348919</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>4267.210002903525</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1667.930277414128</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="20">
@@ -5749,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,16 +5758,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>696.7084350851671</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>546.5917956728314</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6223,10 +6223,10 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6308,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6548,19 +6548,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782912</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038298</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797699</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832658</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832658</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.167399417937</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2438.670847218162</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2438.670847218162</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2438.670847218162</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,13 +6943,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6964,10 +6964,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6979,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>991.7436897307817</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>822.8075068028749</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>696.7084350851671</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>546.5917956728314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>546.5917956728314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2273.199413378161</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7630,7 +7630,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7648,19 +7648,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7739,10 +7739,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>533.5582272005026</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>383.4415877881669</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2410.372231621975</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2410.372231621975</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2190.770766644916</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -8066,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26.13373767211354</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775129</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069042</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.6295957084422</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>35.68386670538922</v>
+        <v>138.3837121690864</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348527</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>65.31997266427237</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>44.73700564187202</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>187.3371490132302</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>231.8866226476554</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>9.131767663158399</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>31.71340154579397</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24414,7 +24414,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>196.0358353086631</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>180.5336875992917</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>121.5862749664501</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>24.58839950885167</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>84.25835418137864</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>30.15030327141871</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752541</v>
@@ -26331,28 +26331,28 @@
         <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752539</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752542</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752542</v>
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580794</v>
+        <v>390680.0076580774</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606929</v>
+        <v>507909.232060695</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.2377910178</v>
+        <v>95270.23779101731</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954689</v>
+        <v>132717.9756954695</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662837</v>
+        <v>136854.4547662843</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.867575679</v>
+        <v>92902.86757567884</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-396423.7673304008</v>
+        <v>-396423.7673304013</v>
       </c>
       <c r="C6" t="n">
-        <v>283664.2132607917</v>
+        <v>283664.2132607921</v>
       </c>
       <c r="D6" t="n">
-        <v>-25182.04684843647</v>
+        <v>-25182.04684843558</v>
       </c>
       <c r="E6" t="n">
-        <v>-33187.67746610212</v>
+        <v>-33535.05672046106</v>
       </c>
       <c r="F6" t="n">
-        <v>474721.5545945904</v>
+        <v>474374.1753402332</v>
       </c>
       <c r="G6" t="n">
-        <v>474721.5545945906</v>
+        <v>474374.175340234</v>
       </c>
       <c r="H6" t="n">
-        <v>474721.5545945906</v>
+        <v>474374.1753402335</v>
       </c>
       <c r="I6" t="n">
-        <v>474721.5545945904</v>
+        <v>474374.1753402338</v>
       </c>
       <c r="J6" t="n">
-        <v>405722.4001754767</v>
+        <v>405375.0209211198</v>
       </c>
       <c r="K6" t="n">
-        <v>474721.5545945902</v>
+        <v>474374.1753402338</v>
       </c>
       <c r="L6" t="n">
-        <v>379451.3168035727</v>
+        <v>379103.9375492167</v>
       </c>
       <c r="M6" t="n">
-        <v>342003.5788991218</v>
+        <v>341656.1996447643</v>
       </c>
       <c r="N6" t="n">
-        <v>474721.5545945906</v>
+        <v>474374.1753402339</v>
       </c>
       <c r="O6" t="n">
-        <v>474721.5545945905</v>
+        <v>474374.1753402337</v>
       </c>
       <c r="P6" t="n">
-        <v>474721.5545945905</v>
+        <v>474374.1753402335</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627831</v>
+        <v>933.7024595627815</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856962</v>
+        <v>640.1406900856942</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933049</v>
+        <v>319.6474457933033</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788906</v>
+        <v>434.2730407788924</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841901</v>
+        <v>376.4268100841881</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139522</v>
+        <v>532.5675980139544</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841903</v>
+        <v>376.4268100841883</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013952</v>
+        <v>532.5675980139544</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841901</v>
+        <v>376.4268100841881</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139522</v>
+        <v>532.5675980139544</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>150.1883136560043</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>137.0854724437117</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>124.1700677400987</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>51.20112920655453</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27590,10 +27590,10 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>260.6531226972855</v>
+        <v>275.9328546261308</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402054</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27675,16 +27675,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>153.958753150727</v>
+        <v>173.6689735381485</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27709,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>115.2720657906282</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>129.4387587509369</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27833,16 +27833,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>142.9895477735661</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508492</v>
+        <v>146.012264260012</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>27.39448960389313</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>37.38973924956389</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164536444</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164528657</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>58.43793147256925</v>
+        <v>90.63632943398041</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29693,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885557</v>
+        <v>3.753577726885551</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546673</v>
+        <v>38.44132789546666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972534</v>
+        <v>318.5802175972528</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763191</v>
+        <v>477.4691627763183</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354931</v>
+        <v>592.3427171354921</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359941</v>
+        <v>659.0954050359931</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525078</v>
+        <v>669.7602577525066</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307895</v>
+        <v>632.4356192307883</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983022</v>
+        <v>539.7691690983013</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.344166754213</v>
+        <v>405.3441667542123</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864751</v>
+        <v>235.7856768864747</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140472</v>
+        <v>85.53465245140458</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944154</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508446</v>
+        <v>0.3002862181508441</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00834113943693</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026272</v>
+        <v>69.1468330902626</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079426</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502169</v>
+        <v>324.3030514502163</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571282</v>
+        <v>436.0654741571274</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617168</v>
+        <v>508.8678404617159</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152215</v>
+        <v>522.3360580152206</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519085</v>
+        <v>477.8354464519076</v>
       </c>
       <c r="P9" t="n">
-        <v>383.505072494759</v>
+        <v>383.5050724947584</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463702</v>
+        <v>256.3629847463698</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.304055813664</v>
+        <v>37.30405581366394</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133938</v>
+        <v>8.095024154133924</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415881</v>
+        <v>50.63422518415872</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772519</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490124</v>
+        <v>250.324098749012</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023125</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462351</v>
+        <v>257.6559590462346</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046255</v>
+        <v>237.9869810046251</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708731</v>
+        <v>203.6389757708728</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307417</v>
+        <v>75.70643221307402</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658778</v>
+        <v>29.34274778658773</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942753</v>
+        <v>7.19410091794274</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650336</v>
+        <v>0.0918395861865032</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>575.5951359912035</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32554,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33268,10 +33268,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>533.0479862785273</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34213,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34786,10 +34786,10 @@
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>238.3094620181792</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496654</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127216</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
         <v>75.43840481763047</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705671</v>
+        <v>137.5343130705666</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313386</v>
+        <v>257.3793117313377</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655059</v>
+        <v>356.5763021655048</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087214</v>
+        <v>428.7491718087203</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559168</v>
+        <v>440.3471941559157</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091027</v>
+        <v>402.3374078091016</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430327</v>
+        <v>308.5361733430317</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797635</v>
+        <v>183.0384768797628</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234298</v>
+        <v>20.20013907234258</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816847</v>
+        <v>188.9976037816844</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758579</v>
+        <v>450.9268494884359</v>
       </c>
       <c r="L9" t="n">
-        <v>640.1406900856962</v>
+        <v>297.5110943772532</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396984</v>
+        <v>366.7338065396976</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318882</v>
+        <v>390.9943459318873</v>
       </c>
       <c r="O9" t="n">
-        <v>335.239202007464</v>
+        <v>335.2392020074632</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804288</v>
+        <v>249.5306650804282</v>
       </c>
       <c r="Q9" t="n">
-        <v>152.0650773657379</v>
+        <v>254.7649228294346</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783576</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873318</v>
+        <v>25.68023017873298</v>
       </c>
       <c r="K10" t="n">
-        <v>173.348826751369</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093285</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641531</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254637</v>
+        <v>301.7881314254632</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186652</v>
+        <v>262.5721089186648</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357666</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228587</v>
+        <v>54.82702814228561</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35971,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>433.4611020691852</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36916,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326294884</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>399.073578864197</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37861,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2137013.77388748</v>
+        <v>2138774.304190267</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>215.0845781150033</v>
+        <v>219.4450108596162</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>11.85265184632477</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>79.84453991653589</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>10.32577587654671</v>
+        <v>96.37105247197307</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>225.1346772411286</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,19 +977,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>65.40222883393993</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>28.33708868093388</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>140.510734076579</v>
+        <v>70.69211095026081</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>19.18261392091014</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>28.37634500508668</v>
+        <v>65.76608425465008</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8390969161451</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115247</v>
+        <v>20.24979976115225</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256375</v>
+        <v>132.6026661256523</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.17992030911916</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.34571932180407</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.63824106824964</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>182.6459585974023</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812101</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>113.5413580759688</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>20.25102067617261</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>220.424241778034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>26.05480806223585</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465767</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>118.465169746786</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>160.1597912950997</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.0270735093607</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>36.22494343870298</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="C2" t="n">
-        <v>683.2875691835745</v>
+        <v>833.1938928750977</v>
       </c>
       <c r="D2" t="n">
-        <v>683.2875691835745</v>
+        <v>566.8162363079201</v>
       </c>
       <c r="E2" t="n">
-        <v>416.9099126163966</v>
+        <v>300.4385797407425</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356492</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.2826908791755</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052536</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.51749475159</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030597</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991306</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358402</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601761</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="X2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="Y2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006023</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>660.5440004277928</v>
+        <v>787.653248772002</v>
       </c>
       <c r="C3" t="n">
-        <v>486.0909711466658</v>
+        <v>613.200219490875</v>
       </c>
       <c r="D3" t="n">
-        <v>337.1565614854145</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="E3" t="n">
-        <v>177.919106479959</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="F3" t="n">
-        <v>177.919106479959</v>
+        <v>158.4937968510532</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957454</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263947</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557294</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789492</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212813</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212813</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212813</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212813</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212813</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212813</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212813</v>
       </c>
       <c r="Y3" t="n">
-        <v>828.7593374478608</v>
+        <v>955.86858579207</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>641.9843993892782</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="C4" t="n">
-        <v>473.0482164613713</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="D4" t="n">
-        <v>322.9315770490356</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E4" t="n">
-        <v>175.0184834666425</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012046</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227043</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075538</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006023</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407061</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407061</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407061</v>
       </c>
       <c r="U4" t="n">
-        <v>1044.425443363048</v>
+        <v>828.7184943942686</v>
       </c>
       <c r="V4" t="n">
-        <v>1044.425443363048</v>
+        <v>828.7184943942686</v>
       </c>
       <c r="W4" t="n">
-        <v>1044.425443363048</v>
+        <v>562.340837827091</v>
       </c>
       <c r="X4" t="n">
-        <v>1044.425443363048</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="Y4" t="n">
-        <v>823.632864219518</v>
+        <v>334.3512869290737</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276842</v>
+        <v>534.7928453799752</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>268.4151888127973</v>
       </c>
       <c r="D5" t="n">
         <v>41.00642392276842</v>
@@ -4555,7 +4555,7 @@
         <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>34.06092317356494</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4567,19 +4567,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4588,31 +4588,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471531</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>801.1705019471531</v>
       </c>
       <c r="W5" t="n">
-        <v>522.1002068716687</v>
+        <v>801.1705019471531</v>
       </c>
       <c r="X5" t="n">
-        <v>255.7225503044907</v>
+        <v>801.1705019471531</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.00642392276842</v>
+        <v>801.1705019471531</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.4937968510533</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>158.4937968510533</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>158.4937968510533</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>158.4937968510533</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
         <v>21.09711040012049</v>
@@ -4646,52 +4646,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263948</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557294</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891328</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T6" t="n">
-        <v>970.4567788047946</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U6" t="n">
-        <v>742.3209328416081</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V6" t="n">
-        <v>742.3209328416081</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W6" t="n">
-        <v>742.3209328416081</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X6" t="n">
-        <v>534.4694326360752</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>326.7091338711213</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>503.2874698569806</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="C7" t="n">
-        <v>334.3512869290737</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2346475167379</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227042</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075538</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>800.1710318001375</v>
       </c>
       <c r="W7" t="n">
-        <v>912.9254855852377</v>
+        <v>728.7648591231064</v>
       </c>
       <c r="X7" t="n">
-        <v>684.9359346872203</v>
+        <v>500.775308225089</v>
       </c>
       <c r="Y7" t="n">
-        <v>684.9359346872203</v>
+        <v>500.775308225089</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>825.7137642237628</v>
+        <v>512.9260387303702</v>
       </c>
       <c r="C8" t="n">
-        <v>456.7512472833511</v>
+        <v>143.9635217899585</v>
       </c>
       <c r="D8" t="n">
-        <v>98.48554867660062</v>
+        <v>143.9635217899585</v>
       </c>
       <c r="E8" t="n">
-        <v>98.48554867660062</v>
+        <v>143.9635217899585</v>
       </c>
       <c r="F8" t="n">
-        <v>91.54004792739714</v>
+        <v>137.0180210407551</v>
       </c>
       <c r="G8" t="n">
-        <v>79.87422995946835</v>
+        <v>117.641643342866</v>
       </c>
       <c r="H8" t="n">
-        <v>79.87422995946835</v>
+        <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685554</v>
+        <v>51.21125520685584</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467166</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607409</v>
+        <v>442.1757437607437</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045908</v>
+        <v>795.1862829045951</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995224</v>
+        <v>1219.64796299523</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520958</v>
+        <v>1655.591685209589</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940591</v>
+        <v>2053.905718940602</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550192</v>
+        <v>2359.356530550205</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661158</v>
+        <v>2540.564622661172</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342777</v>
+        <v>2435.830015762145</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342777</v>
+        <v>2227.077931858418</v>
       </c>
       <c r="U8" t="n">
-        <v>2306.981581868347</v>
+        <v>1973.496753383988</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.918694524776</v>
+        <v>1642.433866040418</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.918694524776</v>
+        <v>1289.665210770304</v>
       </c>
       <c r="X8" t="n">
-        <v>1602.452936263696</v>
+        <v>1289.665210770304</v>
       </c>
       <c r="Y8" t="n">
-        <v>1212.313604287885</v>
+        <v>899.525878794492</v>
       </c>
     </row>
     <row r="9">
@@ -4877,37 +4877,37 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993884</v>
+        <v>71.66559839993892</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685554</v>
+        <v>51.21125520685584</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507231</v>
+        <v>113.4887579637193</v>
       </c>
       <c r="K9" t="n">
-        <v>684.7364639442746</v>
+        <v>482.1680661379816</v>
       </c>
       <c r="L9" t="n">
-        <v>979.2724473777553</v>
+        <v>776.7040495714637</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.338915852056</v>
+        <v>1139.770518045766</v>
       </c>
       <c r="N9" t="n">
-        <v>1729.423318324624</v>
+        <v>1526.854920518336</v>
       </c>
       <c r="O9" t="n">
-        <v>2061.310128312013</v>
+        <v>1858.741730505726</v>
       </c>
       <c r="P9" t="n">
-        <v>2308.345486741637</v>
+        <v>2421.055229888889</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342777</v>
+        <v>2536.272628442634</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="S9" t="n">
         <v>2426.620673347184</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.3902704547947</v>
+        <v>665.0671186274019</v>
       </c>
       <c r="C10" t="n">
-        <v>510.4540875268879</v>
+        <v>496.130935699495</v>
       </c>
       <c r="D10" t="n">
-        <v>360.3374481145521</v>
+        <v>346.0142962871593</v>
       </c>
       <c r="E10" t="n">
-        <v>212.424354532159</v>
+        <v>198.1012027047662</v>
       </c>
       <c r="F10" t="n">
-        <v>65.53440703424863</v>
+        <v>51.21125520685584</v>
       </c>
       <c r="G10" t="n">
-        <v>65.53440703424863</v>
+        <v>51.21125520685584</v>
       </c>
       <c r="H10" t="n">
-        <v>65.53440703424863</v>
+        <v>51.21125520685584</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685554</v>
+        <v>51.21125520685584</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380119</v>
+        <v>76.63468308380187</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676562</v>
+        <v>248.2500215676575</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368911</v>
+        <v>523.3850043368932</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904023</v>
+        <v>823.8653899904052</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101615</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931089</v>
+        <v>1382.582027931094</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616503</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412618</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634452</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="T10" t="n">
-        <v>1336.515802634452</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="U10" t="n">
-        <v>1336.515802634452</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="V10" t="n">
-        <v>1081.831314428565</v>
+        <v>1584.91488353615</v>
       </c>
       <c r="W10" t="n">
-        <v>1081.831314428565</v>
+        <v>1295.497713499189</v>
       </c>
       <c r="X10" t="n">
-        <v>1081.831314428565</v>
+        <v>1067.508162601172</v>
       </c>
       <c r="Y10" t="n">
-        <v>861.0387352850345</v>
+        <v>846.7155834576416</v>
       </c>
     </row>
     <row r="11">
@@ -5020,13 +5020,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5132,10 +5132,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.0424953278208</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2425.106274420413</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2242.251440075317</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2022.649975098258</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1733.574748442456</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1478.890260236569</v>
+        <v>1686.749820929699</v>
       </c>
       <c r="W13" t="n">
-        <v>1189.473090199608</v>
+        <v>1397.332650892738</v>
       </c>
       <c r="X13" t="n">
-        <v>961.4835393015907</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y13" t="n">
-        <v>740.6909601580605</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="14">
@@ -5254,55 +5254,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492579</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5518,10 +5518,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5530,10 +5530,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2332.274843099484</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="V19" t="n">
-        <v>1667.930277414128</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W19" t="n">
-        <v>1378.513107377167</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X19" t="n">
-        <v>1150.52355647915</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y19" t="n">
-        <v>929.7309773356195</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1715.635642676658</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1426.218472639697</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1198.22892174168</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>866.4638174991119</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>697.527634571205</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>697.527634571205</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1496.894412370899</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1268.904861472882</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1048.112282329352</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436268</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,19 +6536,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
         <v>716.6687843969308</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6642,31 +6642,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548756</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854699</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648812</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611852</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>991.7436897307817</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>822.8075068028749</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1173.392154561021</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7177,16 +7177,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,7 +7399,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7651,7 +7651,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7663,10 +7663,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2410.372231621975</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2410.372231621975</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2190.770766644916</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127164</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775129</v>
+        <v>65.34295837775062</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127288</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>185.9417291143056</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.3837121690864</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348527</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.73700564187202</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016388</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>69.49168472642575</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>103.8640922513194</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>231.8866226476554</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>31.71340154579397</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>168.057828589805</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>65.54986409393746</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.58839950885167</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>30.15030327141871</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>858418.2000354211</v>
+        <v>858418.2000354212</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.480192429</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.4801924287</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.4801924287</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752541</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752542</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="N2" t="n">
-        <v>585181.2847752545</v>
-      </c>
       <c r="O2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752542</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911926</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580774</v>
+        <v>390680.0076580814</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.232060695</v>
+        <v>507909.2320606912</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911395</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101731</v>
+        <v>95270.23779101821</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954695</v>
+        <v>132717.9756954685</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248543.2666865467</v>
+        <v>248543.2666865468</v>
       </c>
       <c r="C4" t="n">
-        <v>248543.2666865467</v>
+        <v>248543.2666865468</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662843</v>
+        <v>136854.4547662832</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756694</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756674</v>
       </c>
       <c r="G4" t="n">
         <v>9337.20035675659</v>
@@ -26441,10 +26441,10 @@
         <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756486</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756486</v>
       </c>
       <c r="L4" t="n">
         <v>9337.20035675659</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426617</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567884</v>
+        <v>92902.86757567915</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-396423.7673304013</v>
+        <v>-396423.7673304002</v>
       </c>
       <c r="C6" t="n">
-        <v>283664.2132607921</v>
+        <v>283664.2132607924</v>
       </c>
       <c r="D6" t="n">
-        <v>-25182.04684843558</v>
+        <v>-25182.04684843833</v>
       </c>
       <c r="E6" t="n">
-        <v>-33535.05672046106</v>
+        <v>-33222.4153915364</v>
       </c>
       <c r="F6" t="n">
-        <v>474374.1753402332</v>
+        <v>474686.8166691546</v>
       </c>
       <c r="G6" t="n">
-        <v>474374.175340234</v>
+        <v>474686.816669155</v>
       </c>
       <c r="H6" t="n">
-        <v>474374.1753402335</v>
+        <v>474686.8166691549</v>
       </c>
       <c r="I6" t="n">
-        <v>474374.1753402338</v>
+        <v>474686.816669155</v>
       </c>
       <c r="J6" t="n">
-        <v>405375.0209211198</v>
+        <v>405687.6622500411</v>
       </c>
       <c r="K6" t="n">
-        <v>474374.1753402338</v>
+        <v>474686.816669155</v>
       </c>
       <c r="L6" t="n">
-        <v>379103.9375492167</v>
+        <v>379416.5788781368</v>
       </c>
       <c r="M6" t="n">
-        <v>341656.1996447643</v>
+        <v>341968.8409736864</v>
       </c>
       <c r="N6" t="n">
-        <v>474374.1753402339</v>
+        <v>474686.816669155</v>
       </c>
       <c r="O6" t="n">
-        <v>474374.1753402337</v>
+        <v>474686.816669155</v>
       </c>
       <c r="P6" t="n">
-        <v>474374.1753402335</v>
+        <v>474686.8166691548</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627815</v>
+        <v>933.7024595627846</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856942</v>
+        <v>640.140690085698</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933033</v>
+        <v>319.6474457933066</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788924</v>
+        <v>434.2730407788891</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841881</v>
+        <v>376.4268100841919</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139544</v>
+        <v>532.5675980139504</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015057</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841883</v>
+        <v>376.4268100841919</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139544</v>
+        <v>532.5675980139504</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015058</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841881</v>
+        <v>376.4268100841919</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139544</v>
+        <v>532.5675980139504</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>150.1883136560043</v>
+        <v>145.8278809113914</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917716</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>118.216490070756</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>143.1621657402056</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27469,16 +27469,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>124.1700677400987</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>125.8381558607685</v>
       </c>
     </row>
     <row r="4">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27593,19 +27593,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>275.9328546261308</v>
+        <v>189.8875780307044</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350852</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619745</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695015</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>129.5483643795543</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27669,22 +27669,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.6689735381485</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>129.4387587509369</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>177.4358965225436</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>146.012264260012</v>
+        <v>215.8308873863302</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>392.3665458673394</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>37.38973924956389</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164536444</v>
+        <v>1.776449164521438</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>90.63632943398041</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.7919240020239</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,22 +28089,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28146,16 +28146,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28298,7 +28298,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>5.809605180071106e-12</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28332,16 +28332,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.478997154632013e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28377,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="15">
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29714,7 +29714,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>-6.19002207767694e-12</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O4" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885551</v>
+        <v>3.753577726885563</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546666</v>
+        <v>38.44132789546678</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972528</v>
+        <v>318.5802175972539</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763183</v>
+        <v>477.4691627763199</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354921</v>
+        <v>592.342717135494</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359931</v>
+        <v>659.0954050359952</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525066</v>
+        <v>669.7602577525089</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307883</v>
+        <v>632.4356192307905</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983013</v>
+        <v>539.769169098303</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542123</v>
+        <v>405.3441667542137</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864747</v>
+        <v>235.7856768864755</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140458</v>
+        <v>85.53465245140487</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944151</v>
+        <v>16.43128649944156</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508441</v>
+        <v>0.300286218150845</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436933</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035137</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902626</v>
+        <v>69.14683309026283</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079423</v>
+        <v>189.7441951079429</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502163</v>
+        <v>324.3030514502174</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571274</v>
+        <v>436.0654741571288</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617159</v>
+        <v>508.8678404617175</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152206</v>
+        <v>522.3360580152223</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519076</v>
+        <v>477.8354464519092</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947584</v>
+        <v>383.5050724947596</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463698</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204787</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366394</v>
+        <v>37.30405581366406</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133924</v>
+        <v>8.09502415413395</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415872</v>
+        <v>50.63422518415889</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.6183185772522</v>
       </c>
       <c r="L10" t="n">
-        <v>250.324098749012</v>
+        <v>250.3240987490128</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023121</v>
+        <v>263.931664102313</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462346</v>
+        <v>257.6559590462355</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046251</v>
+        <v>237.9869810046259</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708728</v>
+        <v>203.6389757708735</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.98907139398</v>
+        <v>140.9890713939805</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307402</v>
+        <v>75.70643221307428</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658773</v>
+        <v>29.34274778658783</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794274</v>
+        <v>7.194100917942764</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0918395861865032</v>
+        <v>0.09183958618650349</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107744</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200299</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,7 +33271,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250125</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496654</v>
+        <v>6.560263827495966</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877692</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705666</v>
+        <v>137.5343130705676</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313377</v>
+        <v>257.3793117313393</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655048</v>
+        <v>356.5763021655068</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087203</v>
+        <v>428.7491718087225</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559157</v>
+        <v>440.347194155918</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091016</v>
+        <v>402.3374078091038</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430317</v>
+        <v>308.5361733430335</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797628</v>
+        <v>183.0384768797642</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234258</v>
+        <v>20.20013907234335</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816844</v>
+        <v>62.90656844127619</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884359</v>
+        <v>372.403341590164</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772532</v>
+        <v>297.5110943772547</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396976</v>
+        <v>366.7338065396992</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318873</v>
+        <v>390.994345931889</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074632</v>
+        <v>335.2392020074648</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804282</v>
+        <v>567.9934337203665</v>
       </c>
       <c r="Q9" t="n">
-        <v>254.7649228294346</v>
+        <v>116.3812106603491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783596</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873298</v>
+        <v>25.68023017873337</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513687</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093281</v>
+        <v>277.9141240093289</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641527</v>
+        <v>303.5155410641536</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254632</v>
+        <v>301.788131425464</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186648</v>
+        <v>262.5721089186655</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228561</v>
+        <v>54.8270281422861</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663299</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366966</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,7 +36919,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37010,7 +37010,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998915</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
